--- a/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1089606112739827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07473328797464826</v>
+        <v>0.07473328797464827</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07360969128701263</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04326386273517079</v>
+        <v>0.04330240134549312</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09124517419553742</v>
+        <v>0.08701025491083547</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07421600131984478</v>
+        <v>0.07609290403358529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05015617149607055</v>
+        <v>0.04649055952581034</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04453104075332419</v>
+        <v>0.04379558225145407</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08017350464951145</v>
+        <v>0.07725776294181615</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05990809007441864</v>
+        <v>0.06148104749076089</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04654146204608109</v>
+        <v>0.04620042982394276</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05125726993252645</v>
+        <v>0.05058616715792091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09165141919349849</v>
+        <v>0.09393134962278903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07618131679002742</v>
+        <v>0.07539428893607045</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05328331836080463</v>
+        <v>0.05193930713658796</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1095083687437994</v>
+        <v>0.1117577270981669</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1702776092545122</v>
+        <v>0.1654661318813876</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1470846451393759</v>
+        <v>0.1561686861973594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1090880944362142</v>
+        <v>0.1065330393295867</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1122587842882749</v>
+        <v>0.1198882418508874</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1620703851080886</v>
+        <v>0.155296379957073</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1225792762477337</v>
+        <v>0.1245570339650116</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09335755579396279</v>
+        <v>0.09091253231282279</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0970846482710965</v>
+        <v>0.09975799431909343</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1499367077305437</v>
+        <v>0.1513607234320227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1249156240664537</v>
+        <v>0.1234195116858759</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09056267548334646</v>
+        <v>0.09077538190433058</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.07582509407643505</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06398219689051585</v>
+        <v>0.06398219689051583</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06312285576560613</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04526197827934501</v>
+        <v>0.04483070487371614</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09767971457471687</v>
+        <v>0.1011042663183886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05081470978495406</v>
+        <v>0.0523446227819877</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02091598792870365</v>
+        <v>0.02019798473090312</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04502061040224967</v>
+        <v>0.04319169176467352</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06374223912470753</v>
+        <v>0.05994490221983066</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05520384047612328</v>
+        <v>0.05276032745998892</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04746272111814113</v>
+        <v>0.04523715795597138</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04771268201910897</v>
+        <v>0.04873723181134258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08742859381567591</v>
+        <v>0.08513228665869707</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05838660490922958</v>
+        <v>0.05871420429047702</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03810007670964441</v>
+        <v>0.03739767568471901</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09222280387212811</v>
+        <v>0.09304650413008274</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.162430476626596</v>
+        <v>0.1613367660594179</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09840455293918181</v>
+        <v>0.09809467208659839</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06443767566212712</v>
+        <v>0.06081091833671091</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08667916591719747</v>
+        <v>0.08787157603951709</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1126959866298735</v>
+        <v>0.1088720365161503</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1023187966371808</v>
+        <v>0.1032993674292762</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08941575113562768</v>
+        <v>0.08706719425553615</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08081622547395341</v>
+        <v>0.0801904715524478</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1291878211761248</v>
+        <v>0.1260897819210987</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09068742497526425</v>
+        <v>0.09410916757013911</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06776295958990747</v>
+        <v>0.06677634054819606</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.05952301394550421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07687122460876776</v>
+        <v>0.07687122460876775</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0200000432157861</v>
@@ -969,7 +969,7 @@
         <v>0.06865616777925961</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08770299654470028</v>
+        <v>0.08770299654470026</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02625587978983033</v>
+        <v>0.02368778964854473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07942279879727179</v>
+        <v>0.07966440786616312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03913285012331509</v>
+        <v>0.03565068686012724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05166833475424637</v>
+        <v>0.05060477091709917</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008389274413878815</v>
+        <v>0.008391410866108243</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07632385511742967</v>
+        <v>0.0731407814315871</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04921343985821308</v>
+        <v>0.05068380922730632</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07575219315615987</v>
+        <v>0.07492945649646354</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01868781171779925</v>
+        <v>0.02057222446167579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08364220326534204</v>
+        <v>0.08651057775932143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05158109180095111</v>
+        <v>0.05068029559183365</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07120897831378389</v>
+        <v>0.07059530858402478</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07571086184997443</v>
+        <v>0.07405254175833685</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1523886139106623</v>
+        <v>0.151719788861204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09025986205154557</v>
+        <v>0.08688265355545144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1098188596578572</v>
+        <v>0.110220448139833</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04261450473723789</v>
+        <v>0.03994603170292171</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1428793475683411</v>
+        <v>0.145722590797165</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1129984157990451</v>
+        <v>0.1140702189280678</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1282755826559266</v>
+        <v>0.1270949797945739</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04701524480649167</v>
+        <v>0.04764298795812668</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1349755208393122</v>
+        <v>0.1350889136101533</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09356539231154631</v>
+        <v>0.09208286200046568</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1093396572022193</v>
+        <v>0.108105577850733</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.037053898201915</v>
+        <v>0.03690239570591931</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04052464633755412</v>
+        <v>0.03925234986790153</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06288765047127882</v>
+        <v>0.06385897022042253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04824652211082846</v>
+        <v>0.04793534098769178</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03299757995610086</v>
+        <v>0.03271466491460564</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07065824788630654</v>
+        <v>0.06769347771089046</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04797503040614431</v>
+        <v>0.04646210043287338</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05214993344197327</v>
+        <v>0.05117233326182329</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04117061304022904</v>
+        <v>0.04112979596537641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06240909955662785</v>
+        <v>0.06218734559894666</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06065206603799646</v>
+        <v>0.05937470174469171</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05548276455517751</v>
+        <v>0.05872084747291336</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08601332467073147</v>
+        <v>0.08332193568654611</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09395902283959352</v>
+        <v>0.0924991412760231</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1196519944484456</v>
+        <v>0.1253592975301876</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1268093436610527</v>
+        <v>0.1318319014230186</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07797810208974777</v>
+        <v>0.07890162209359866</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1329917809785497</v>
+        <v>0.1336767513172009</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1023689514353029</v>
+        <v>0.09803502961262775</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1050878338282251</v>
+        <v>0.1081875693994384</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07330906327169129</v>
+        <v>0.07533944853226152</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1013733590876239</v>
+        <v>0.1028365908644353</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09885600693394496</v>
+        <v>0.09839059907982517</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1013317671862969</v>
+        <v>0.1025953386570729</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04106592668739967</v>
+        <v>0.04198450318355884</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07846393945935907</v>
+        <v>0.0807898438353362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04112915334605536</v>
+        <v>0.03882742446368675</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04406029038042704</v>
+        <v>0.04347704064087203</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04082488064080255</v>
+        <v>0.03973087745950298</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06560431193324319</v>
+        <v>0.06417204310812435</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04785571522426935</v>
+        <v>0.04744778925112053</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0847212704572211</v>
+        <v>0.08308373313322608</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05024677995010973</v>
+        <v>0.05204518448229806</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08074921456543373</v>
+        <v>0.08207718606728535</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05196698133166395</v>
+        <v>0.05309714789979419</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07080429395229867</v>
+        <v>0.07197876161090087</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1101574953318888</v>
+        <v>0.1108836020390158</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1817738556193305</v>
+        <v>0.177311591766204</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1097692984612527</v>
+        <v>0.1048090187630456</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1014416485988975</v>
+        <v>0.1011414824818989</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1163062158290986</v>
+        <v>0.1128669744274043</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1486443728040138</v>
+        <v>0.1472622886784501</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1191021941302879</v>
+        <v>0.119424091907217</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1472276553252594</v>
+        <v>0.1510691498525818</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1032764788797132</v>
+        <v>0.1001920554141966</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1450121881332688</v>
+        <v>0.1464685174201021</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.102797094656277</v>
+        <v>0.105505769047916</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.114871821100065</v>
+        <v>0.1175193050694505</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09161119210137555</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07457629504660426</v>
+        <v>0.07457629504660424</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05904137608026716</v>
@@ -1377,7 +1377,7 @@
         <v>0.0810143920038085</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.07781430008132416</v>
+        <v>0.07781430008132417</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03834264459147232</v>
+        <v>0.03573878592465456</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1095537819491385</v>
+        <v>0.1078155469425208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04144330607598429</v>
+        <v>0.04240259895043098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05366124488385795</v>
+        <v>0.05163764295874413</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03390269236248634</v>
+        <v>0.03207711859181329</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07200530508687687</v>
+        <v>0.07175537582381557</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06075007370004563</v>
+        <v>0.05782912172918337</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05020202418343855</v>
+        <v>0.05233966538050473</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04151929464899465</v>
+        <v>0.04077237496202164</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1004313763466556</v>
+        <v>0.09922586434024369</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0587248554526375</v>
+        <v>0.05998392264597008</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0591850542959087</v>
+        <v>0.05946924382742473</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09499012875612053</v>
+        <v>0.09321234408789326</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1967413030603795</v>
+        <v>0.1969363170964821</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1065857802364952</v>
+        <v>0.1119701118621707</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1143156485892737</v>
+        <v>0.1148082365091278</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09232489537149693</v>
+        <v>0.09105078312000731</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1469636575997557</v>
+        <v>0.1432870530926446</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1299646001129905</v>
+        <v>0.1288701515689442</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1018464861650864</v>
+        <v>0.1026500886149469</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08217693907988391</v>
+        <v>0.08019151756379911</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1594717047114506</v>
+        <v>0.1589836859467674</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1077026976353302</v>
+        <v>0.1063803454175295</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1002850741681042</v>
+        <v>0.09853165289778051</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05744546266852704</v>
+        <v>0.05862493043684793</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06489077291346015</v>
+        <v>0.06332986650443675</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0640039251730726</v>
+        <v>0.06159581343580023</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08196344362188454</v>
+        <v>0.08147732010139763</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04462947501919744</v>
+        <v>0.04350500200939894</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04401423650375996</v>
+        <v>0.04402434450609246</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05832301202102651</v>
+        <v>0.05900476411837637</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0797003108605106</v>
+        <v>0.07855149864443682</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05527042331462934</v>
+        <v>0.05704387390952916</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05885987845053283</v>
+        <v>0.0595368443086489</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06562101109046671</v>
+        <v>0.06607669194055525</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08515751635756232</v>
+        <v>0.08648339230750154</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1014804333466441</v>
+        <v>0.1000284282962689</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1127382738756256</v>
+        <v>0.1113502736501078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1083596784136645</v>
+        <v>0.1091546949639885</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1412866942149275</v>
+        <v>0.139020563882155</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08608765000187744</v>
+        <v>0.08425613439478573</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08223951364540552</v>
+        <v>0.08111358238912211</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0992006405856358</v>
+        <v>0.1012022663409872</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1175020315259482</v>
+        <v>0.1196091672777931</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08547482333117389</v>
+        <v>0.08559979558271545</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08869409579718882</v>
+        <v>0.08899568283549729</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09576039100722583</v>
+        <v>0.0966116034005215</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1205266472392867</v>
+        <v>0.1199906955131629</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.09848531500561614</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.05767012872581324</v>
+        <v>0.05767012872581326</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.08624855383458217</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06429112298944195</v>
+        <v>0.06412055186365402</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03521456442826561</v>
+        <v>0.03438431312473767</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05172520797538156</v>
+        <v>0.05301490303031351</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03878479607069376</v>
+        <v>0.03886923533705715</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07114680982970908</v>
+        <v>0.0688245207839893</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04785362227245942</v>
+        <v>0.046783541181639</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.078690411962885</v>
+        <v>0.07785001903763962</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04597687752778883</v>
+        <v>0.04540438489859438</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07395487586687921</v>
+        <v>0.07167351011144868</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04588220294378415</v>
+        <v>0.0452305264845283</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07044836983542377</v>
+        <v>0.07111354809228276</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.04592529826139529</v>
+        <v>0.04685650696708188</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1054137088554708</v>
+        <v>0.1069656777705565</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06971252242482164</v>
+        <v>0.06884419358861357</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.09016644258161638</v>
+        <v>0.09251584200174255</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07201408618549796</v>
+        <v>0.07086990778272943</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1128588765860818</v>
+        <v>0.1132689490645193</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08194118789920062</v>
+        <v>0.08207918173143045</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.120544426151958</v>
+        <v>0.1237538497283828</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0735527531386274</v>
+        <v>0.07293114595158766</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1019670108396895</v>
+        <v>0.1006532031499904</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07116306157296781</v>
+        <v>0.07009612772457877</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09949889954066031</v>
+        <v>0.09940866409079382</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06716433777931888</v>
+        <v>0.06822899338568836</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.07693165230526061</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.07182481326029244</v>
+        <v>0.07182481326029246</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.06424134627277592</v>
@@ -1773,7 +1773,7 @@
         <v>0.08330508377987707</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.07726635649936379</v>
+        <v>0.07726635649936381</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.06669004515213445</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08448269044802401</v>
+        <v>0.08393275536988104</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06813111606989163</v>
+        <v>0.0679048757806479</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06223384258907049</v>
+        <v>0.06250445909584949</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07423189396102153</v>
+        <v>0.07413946967333503</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07470695684611359</v>
+        <v>0.07444970132488976</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07000756374880836</v>
+        <v>0.070359969608863</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.08194149582237116</v>
+        <v>0.08228158885690666</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07387702151471137</v>
+        <v>0.07409874253600693</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0685061620694369</v>
+        <v>0.06883927116381014</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1051432020606656</v>
+        <v>0.1052904342882797</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.08687590321632312</v>
+        <v>0.08658024393870124</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.081876357131572</v>
+        <v>0.0825952856185993</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09306411132640596</v>
+        <v>0.09277523685175509</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.09339693749472888</v>
+        <v>0.09391440770746225</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.08654911351759706</v>
+        <v>0.08638419991258757</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.09687644174726529</v>
+        <v>0.09615215937684209</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.08755408962427647</v>
+        <v>0.08710336339773458</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.08116399358041072</v>
+        <v>0.08165411558834137</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11811</v>
+        <v>11822</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26480</v>
+        <v>25251</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21802</v>
+        <v>22353</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15992</v>
+        <v>14823</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11615</v>
+        <v>11424</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22476</v>
+        <v>21659</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17296</v>
+        <v>17750</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14710</v>
+        <v>14602</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>27364</v>
+        <v>27005</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>52291</v>
+        <v>53592</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>44373</v>
+        <v>43914</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>33830</v>
+        <v>32977</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29897</v>
+        <v>30511</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>49415</v>
+        <v>48019</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43208</v>
+        <v>45876</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34782</v>
+        <v>33968</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29281</v>
+        <v>31271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45435</v>
+        <v>43536</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35389</v>
+        <v>35960</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29507</v>
+        <v>28734</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51828</v>
+        <v>53256</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>85546</v>
+        <v>86358</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>72759</v>
+        <v>71887</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>57499</v>
+        <v>57634</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22318</v>
+        <v>22105</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49380</v>
+        <v>51111</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25538</v>
+        <v>26307</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11078</v>
+        <v>10698</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22688</v>
+        <v>21766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>33320</v>
+        <v>31335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>28876</v>
+        <v>27598</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25841</v>
+        <v>24629</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>47571</v>
+        <v>48592</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>89899</v>
+        <v>87538</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>59885</v>
+        <v>60221</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40924</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45473</v>
+        <v>45879</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82113</v>
+        <v>81560</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49456</v>
+        <v>49300</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>34130</v>
+        <v>32209</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43682</v>
+        <v>44283</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>58910</v>
+        <v>56911</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>53521</v>
+        <v>54034</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48682</v>
+        <v>47404</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>80576</v>
+        <v>79952</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>132838</v>
+        <v>129653</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>93014</v>
+        <v>96524</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>72785</v>
+        <v>71725</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8372</v>
+        <v>7553</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25663</v>
+        <v>25741</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12466</v>
+        <v>11357</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16327</v>
+        <v>15991</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26028</v>
+        <v>24942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16551</v>
+        <v>17045</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26997</v>
+        <v>26703</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12227</v>
+        <v>13460</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>55550</v>
+        <v>57455</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>33779</v>
+        <v>33189</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>47879</v>
+        <v>47467</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24140</v>
+        <v>23611</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>49239</v>
+        <v>49023</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28754</v>
+        <v>27678</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34702</v>
+        <v>34829</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14293</v>
+        <v>13398</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>48725</v>
+        <v>49694</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38002</v>
+        <v>38363</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45715</v>
+        <v>45294</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30760</v>
+        <v>31171</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>89642</v>
+        <v>89717</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>61274</v>
+        <v>60303</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>73517</v>
+        <v>72687</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13290</v>
+        <v>13236</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15155</v>
+        <v>14680</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23266</v>
+        <v>23626</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18003</v>
+        <v>17887</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12257</v>
+        <v>12152</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27414</v>
+        <v>26263</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18580</v>
+        <v>17994</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21988</v>
+        <v>21576</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30060</v>
+        <v>30030</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>47553</v>
+        <v>47384</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>45929</v>
+        <v>44961</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>44096</v>
+        <v>46670</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30850</v>
+        <v>29885</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35139</v>
+        <v>34593</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44267</v>
+        <v>46378</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47318</v>
+        <v>49192</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28965</v>
+        <v>29308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>51597</v>
+        <v>51863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39646</v>
+        <v>37967</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>44308</v>
+        <v>45615</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>53525</v>
+        <v>55007</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>77242</v>
+        <v>78357</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>74858</v>
+        <v>74506</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>80536</v>
+        <v>81540</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8349</v>
+        <v>8536</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16683</v>
+        <v>17177</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8687</v>
+        <v>8201</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9062</v>
+        <v>8942</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8478</v>
+        <v>8251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14406</v>
+        <v>14092</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>10461</v>
+        <v>10371</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19250</v>
+        <v>18878</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>20650</v>
+        <v>21389</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>34901</v>
+        <v>35474</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>22336</v>
+        <v>22822</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>30650</v>
+        <v>31158</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22396</v>
+        <v>22544</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38648</v>
+        <v>37700</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23186</v>
+        <v>22138</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20863</v>
+        <v>20801</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24153</v>
+        <v>23439</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32641</v>
+        <v>32337</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26034</v>
+        <v>26105</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33452</v>
+        <v>34325</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>42444</v>
+        <v>41177</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>62676</v>
+        <v>63305</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>44183</v>
+        <v>45347</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>49726</v>
+        <v>50872</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10384</v>
+        <v>9678</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>30016</v>
+        <v>29539</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10905</v>
+        <v>11157</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14526</v>
+        <v>13979</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9430</v>
+        <v>8922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>20100</v>
+        <v>20030</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16592</v>
+        <v>15794</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13241</v>
+        <v>13805</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>22792</v>
+        <v>22382</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>55551</v>
+        <v>54884</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>31490</v>
+        <v>32166</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>31632</v>
+        <v>31784</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25724</v>
+        <v>25243</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>53903</v>
+        <v>53957</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>28045</v>
+        <v>29462</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>30946</v>
+        <v>31079</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>25680</v>
+        <v>25325</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>41023</v>
+        <v>39997</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>35495</v>
+        <v>35196</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>26862</v>
+        <v>27074</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>45111</v>
+        <v>44022</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>88207</v>
+        <v>87937</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>57754</v>
+        <v>57045</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>53598</v>
+        <v>52661</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>35331</v>
+        <v>36056</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>43009</v>
+        <v>41974</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42022</v>
+        <v>40441</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>58988</v>
+        <v>58638</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28483</v>
+        <v>27766</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>30539</v>
+        <v>30546</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>40318</v>
+        <v>40790</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>61533</v>
+        <v>60646</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>69267</v>
+        <v>71490</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>79852</v>
+        <v>80770</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>88447</v>
+        <v>89062</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>127033</v>
+        <v>129011</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>62413</v>
+        <v>61520</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>74722</v>
+        <v>73802</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>71144</v>
+        <v>71666</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>101682</v>
+        <v>100051</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>54943</v>
+        <v>53774</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>57062</v>
+        <v>56281</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>68577</v>
+        <v>69961</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>90718</v>
+        <v>92345</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>107121</v>
+        <v>107278</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>120326</v>
+        <v>120735</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>129071</v>
+        <v>130218</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>179795</v>
+        <v>178995</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>47754</v>
+        <v>47627</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>27361</v>
+        <v>26716</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>40272</v>
+        <v>41277</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>30953</v>
+        <v>31020</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>55744</v>
+        <v>53925</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>39259</v>
+        <v>38381</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>65011</v>
+        <v>64317</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>38161</v>
+        <v>37686</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>112876</v>
+        <v>109394</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>73291</v>
+        <v>72250</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>113052</v>
+        <v>114119</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>74770</v>
+        <v>76286</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>78299</v>
+        <v>79452</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>54165</v>
+        <v>53490</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>70202</v>
+        <v>72031</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>57472</v>
+        <v>56559</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>88426</v>
+        <v>88747</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>67224</v>
+        <v>67337</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>99590</v>
+        <v>102241</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>61049</v>
+        <v>60533</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>155631</v>
+        <v>153626</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>113674</v>
+        <v>111969</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>159671</v>
+        <v>159526</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>109349</v>
+        <v>111082</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>288862</v>
+        <v>286982</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>231261</v>
+        <v>230493</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>219796</v>
+        <v>220752</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>263156</v>
+        <v>262828</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>264802</v>
+        <v>263890</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>261237</v>
+        <v>262552</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>570660</v>
+        <v>573028</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>512625</v>
+        <v>514163</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>497582</v>
+        <v>500002</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>359504</v>
+        <v>360008</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>294887</v>
+        <v>293884</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>289169</v>
+        <v>291708</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>329917</v>
+        <v>328893</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>331049</v>
+        <v>332884</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>322962</v>
+        <v>322347</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>674670</v>
+        <v>669626</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>607528</v>
+        <v>604401</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>589520</v>
+        <v>593080</v>
       </c>
     </row>
     <row r="40">
